--- a/spreadsheet/web_scrape_wrench.xlsx
+++ b/spreadsheet/web_scrape_wrench.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamlam/Desktop/FYP/ObjectPropertiesInformationExtraction/spreadsheet/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF251830-EABD-6D4F-ACB9-6DE3A628D870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="13020" yWindow="1880" windowWidth="25260" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="817">
   <si>
     <t xml:space="preserve">Stanley 090947 6in MaxSteel Adjustable Wrench
 Brand STANLEY
@@ -7724,9 +7730,6 @@
     <t>red</t>
   </si>
   <si>
-    <t>sliver</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
@@ -8744,8 +8747,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8782,6 +8785,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -8828,7 +8839,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8860,9 +8871,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8894,6 +8923,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9069,49 +9116,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B1" t="s">
         <v>807</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>808</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>809</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>810</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>811</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>812</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>813</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>814</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>815</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>816</v>
       </c>
-      <c r="K1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9128,25 +9177,25 @@
         <v>475</v>
       </c>
       <c r="F2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G2" t="s">
         <v>475</v>
       </c>
       <c r="H2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K2" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -9163,25 +9212,25 @@
         <v>475</v>
       </c>
       <c r="F3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G3" t="s">
         <v>475</v>
       </c>
       <c r="H3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K3" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -9198,25 +9247,25 @@
         <v>475</v>
       </c>
       <c r="F4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G4" t="s">
         <v>475</v>
       </c>
       <c r="H4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K4" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -9233,25 +9282,25 @@
         <v>475</v>
       </c>
       <c r="F5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G5" t="s">
         <v>475</v>
       </c>
       <c r="H5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K5" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -9268,25 +9317,25 @@
         <v>475</v>
       </c>
       <c r="F6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G6" t="s">
         <v>475</v>
       </c>
       <c r="H6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K6" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -9303,25 +9352,25 @@
         <v>475</v>
       </c>
       <c r="F7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G7" t="s">
         <v>475</v>
       </c>
       <c r="H7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K7" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -9338,25 +9387,25 @@
         <v>475</v>
       </c>
       <c r="F8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G8" t="s">
         <v>475</v>
       </c>
       <c r="H8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K8" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -9373,25 +9422,25 @@
         <v>478</v>
       </c>
       <c r="F9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G9" t="s">
         <v>475</v>
       </c>
       <c r="H9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K9" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -9408,25 +9457,25 @@
         <v>475</v>
       </c>
       <c r="F10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G10" t="s">
         <v>475</v>
       </c>
       <c r="H10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K10" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -9440,28 +9489,28 @@
         <v>474</v>
       </c>
       <c r="E11" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G11" t="s">
         <v>475</v>
       </c>
       <c r="H11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J11" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K11" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -9478,25 +9527,25 @@
         <v>475</v>
       </c>
       <c r="F12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G12" t="s">
         <v>475</v>
       </c>
       <c r="H12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J12" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K12" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -9528,10 +9577,10 @@
         <v>475</v>
       </c>
       <c r="K13" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -9548,25 +9597,25 @@
         <v>475</v>
       </c>
       <c r="F14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G14" t="s">
         <v>475</v>
       </c>
       <c r="H14" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I14" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K14" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -9580,28 +9629,28 @@
         <v>475</v>
       </c>
       <c r="E15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G15" t="s">
         <v>475</v>
       </c>
       <c r="H15" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I15" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J15" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K15" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -9615,28 +9664,28 @@
         <v>474</v>
       </c>
       <c r="E16" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G16" t="s">
         <v>475</v>
       </c>
       <c r="H16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I16" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J16" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K16" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -9653,25 +9702,25 @@
         <v>475</v>
       </c>
       <c r="F17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G17" t="s">
         <v>475</v>
       </c>
       <c r="H17" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I17" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J17" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K17" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -9685,28 +9734,28 @@
         <v>474</v>
       </c>
       <c r="E18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G18" t="s">
         <v>475</v>
       </c>
       <c r="H18" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K18" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -9723,25 +9772,25 @@
         <v>475</v>
       </c>
       <c r="F19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G19" t="s">
         <v>475</v>
       </c>
       <c r="H19" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I19" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J19" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K19" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -9758,25 +9807,25 @@
         <v>475</v>
       </c>
       <c r="F20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G20" t="s">
         <v>475</v>
       </c>
       <c r="H20" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I20" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J20" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K20" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -9793,25 +9842,25 @@
         <v>475</v>
       </c>
       <c r="F21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G21" t="s">
         <v>475</v>
       </c>
       <c r="H21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I21" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J21" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K21" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -9828,25 +9877,25 @@
         <v>475</v>
       </c>
       <c r="F22" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G22" t="s">
         <v>475</v>
       </c>
       <c r="H22" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I22" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J22" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K22" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -9863,25 +9912,25 @@
         <v>475</v>
       </c>
       <c r="F23" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G23" t="s">
         <v>475</v>
       </c>
       <c r="H23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J23" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K23" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -9898,25 +9947,25 @@
         <v>475</v>
       </c>
       <c r="F24" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G24" t="s">
         <v>475</v>
       </c>
       <c r="H24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I24" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J24" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="K24" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -9933,25 +9982,25 @@
         <v>475</v>
       </c>
       <c r="F25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G25" t="s">
         <v>475</v>
       </c>
       <c r="H25" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I25" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J25" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K25" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -9968,25 +10017,25 @@
         <v>475</v>
       </c>
       <c r="F26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G26" t="s">
         <v>475</v>
       </c>
       <c r="H26" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I26" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J26" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K26" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -10003,25 +10052,25 @@
         <v>475</v>
       </c>
       <c r="F27" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G27" t="s">
         <v>475</v>
       </c>
       <c r="H27" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I27" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J27" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K27" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -10038,25 +10087,25 @@
         <v>475</v>
       </c>
       <c r="F28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G28" t="s">
         <v>475</v>
       </c>
       <c r="H28" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I28" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J28" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K28" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -10070,28 +10119,28 @@
         <v>475</v>
       </c>
       <c r="E29" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G29" t="s">
         <v>475</v>
       </c>
       <c r="H29" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I29" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J29" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K29" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -10105,28 +10154,28 @@
         <v>475</v>
       </c>
       <c r="E30" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F30" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G30" t="s">
         <v>475</v>
       </c>
       <c r="H30" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I30" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J30" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K30" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -10140,28 +10189,28 @@
         <v>475</v>
       </c>
       <c r="E31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G31" t="s">
         <v>475</v>
       </c>
       <c r="H31" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I31" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J31" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K31" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -10178,25 +10227,25 @@
         <v>475</v>
       </c>
       <c r="F32" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G32" t="s">
         <v>475</v>
       </c>
       <c r="H32" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I32" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J32" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K32" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -10213,25 +10262,25 @@
         <v>475</v>
       </c>
       <c r="F33" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G33" t="s">
         <v>475</v>
       </c>
       <c r="H33" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I33" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J33" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K33" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -10245,28 +10294,28 @@
         <v>475</v>
       </c>
       <c r="E34" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F34" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G34" t="s">
         <v>475</v>
       </c>
       <c r="H34" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I34" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J34" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K34" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -10283,7 +10332,7 @@
         <v>475</v>
       </c>
       <c r="F35" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G35" t="s">
         <v>475</v>
@@ -10298,10 +10347,10 @@
         <v>24</v>
       </c>
       <c r="K35" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -10318,25 +10367,25 @@
         <v>475</v>
       </c>
       <c r="F36" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G36" t="s">
         <v>475</v>
       </c>
       <c r="H36" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I36" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J36" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="K36" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -10353,7 +10402,7 @@
         <v>475</v>
       </c>
       <c r="F37" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G37" t="s">
         <v>475</v>
@@ -10368,10 +10417,10 @@
         <v>22.6</v>
       </c>
       <c r="K37" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -10388,25 +10437,25 @@
         <v>475</v>
       </c>
       <c r="F38" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G38" t="s">
         <v>475</v>
       </c>
       <c r="H38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I38" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J38" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K38" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -10423,25 +10472,25 @@
         <v>475</v>
       </c>
       <c r="F39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G39" t="s">
         <v>475</v>
       </c>
       <c r="H39" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I39" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J39" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K39" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -10458,25 +10507,25 @@
         <v>475</v>
       </c>
       <c r="F40" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G40" t="s">
         <v>475</v>
       </c>
       <c r="H40" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I40" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J40" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="K40" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -10490,28 +10539,28 @@
         <v>475</v>
       </c>
       <c r="E41" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F41" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G41" t="s">
         <v>475</v>
       </c>
       <c r="H41" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I41" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J41" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K41" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -10525,28 +10574,28 @@
         <v>475</v>
       </c>
       <c r="E42" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F42" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G42" t="s">
         <v>475</v>
       </c>
       <c r="H42" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I42" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J42" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="K42" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -10560,28 +10609,28 @@
         <v>475</v>
       </c>
       <c r="E43" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F43" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G43" t="s">
         <v>475</v>
       </c>
       <c r="H43" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I43" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J43" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K43" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -10598,25 +10647,25 @@
         <v>475</v>
       </c>
       <c r="F44" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G44" t="s">
         <v>475</v>
       </c>
       <c r="H44" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I44" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J44" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K44" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -10633,25 +10682,25 @@
         <v>475</v>
       </c>
       <c r="F45" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G45" t="s">
         <v>475</v>
       </c>
       <c r="H45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I45" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J45" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K45" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -10665,28 +10714,28 @@
         <v>475</v>
       </c>
       <c r="E46" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F46" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G46" t="s">
         <v>475</v>
       </c>
       <c r="H46" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I46" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J46" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K46" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -10703,25 +10752,25 @@
         <v>475</v>
       </c>
       <c r="F47" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G47" t="s">
         <v>475</v>
       </c>
       <c r="H47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I47" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J47" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K47" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -10738,7 +10787,7 @@
         <v>475</v>
       </c>
       <c r="F48" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G48" t="s">
         <v>475</v>
@@ -10750,13 +10799,13 @@
         <v>7.8</v>
       </c>
       <c r="J48">
-        <v>19.81</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="K48" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -10773,25 +10822,25 @@
         <v>475</v>
       </c>
       <c r="F49" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G49" t="s">
         <v>475</v>
       </c>
       <c r="H49" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I49" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J49" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K49" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -10808,25 +10857,25 @@
         <v>475</v>
       </c>
       <c r="F50" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G50" t="s">
         <v>475</v>
       </c>
       <c r="H50" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I50" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J50" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="K50" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -10843,25 +10892,25 @@
         <v>475</v>
       </c>
       <c r="F51" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G51" t="s">
         <v>475</v>
       </c>
       <c r="H51" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I51" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K51" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -10878,25 +10927,25 @@
         <v>475</v>
       </c>
       <c r="F52" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G52" t="s">
         <v>475</v>
       </c>
       <c r="H52" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I52" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J52" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K52" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -10913,25 +10962,25 @@
         <v>475</v>
       </c>
       <c r="F53" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G53" t="s">
         <v>475</v>
       </c>
       <c r="H53" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I53" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J53" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K53" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -10945,28 +10994,28 @@
         <v>475</v>
       </c>
       <c r="E54" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F54" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G54" t="s">
         <v>475</v>
       </c>
       <c r="H54" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I54" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J54" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K54" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -10983,25 +11032,25 @@
         <v>475</v>
       </c>
       <c r="F55" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G55" t="s">
         <v>475</v>
       </c>
       <c r="H55" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I55" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J55" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K55" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -11015,28 +11064,28 @@
         <v>475</v>
       </c>
       <c r="E56" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F56" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G56" t="s">
         <v>475</v>
       </c>
       <c r="H56" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I56" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J56" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K56" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -11053,25 +11102,25 @@
         <v>475</v>
       </c>
       <c r="F57" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G57" t="s">
         <v>475</v>
       </c>
       <c r="H57" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I57" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J57" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="K57" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -11085,10 +11134,10 @@
         <v>475</v>
       </c>
       <c r="E58" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F58" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G58" t="s">
         <v>475</v>
@@ -11106,7 +11155,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -11120,28 +11169,28 @@
         <v>475</v>
       </c>
       <c r="E59" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F59" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G59" t="s">
         <v>475</v>
       </c>
       <c r="H59" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I59" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J59" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K59" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -11158,25 +11207,25 @@
         <v>475</v>
       </c>
       <c r="F60" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G60" t="s">
         <v>475</v>
       </c>
       <c r="H60" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I60" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J60" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K60" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -11193,25 +11242,25 @@
         <v>475</v>
       </c>
       <c r="F61" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G61" t="s">
         <v>475</v>
       </c>
       <c r="H61" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I61" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J61" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K61" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -11228,25 +11277,25 @@
         <v>475</v>
       </c>
       <c r="F62" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G62" t="s">
         <v>475</v>
       </c>
       <c r="H62" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I62" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J62" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K62" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -11260,28 +11309,28 @@
         <v>474</v>
       </c>
       <c r="E63" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F63" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G63" t="s">
         <v>475</v>
       </c>
       <c r="H63" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I63" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J63" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K63" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -11298,25 +11347,25 @@
         <v>475</v>
       </c>
       <c r="F64" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G64" t="s">
         <v>475</v>
       </c>
       <c r="H64" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I64" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J64" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K64" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -11333,25 +11382,25 @@
         <v>475</v>
       </c>
       <c r="F65" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G65" t="s">
         <v>475</v>
       </c>
       <c r="H65" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I65" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J65" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K65" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -11368,25 +11417,25 @@
         <v>475</v>
       </c>
       <c r="F66" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G66" t="s">
         <v>475</v>
       </c>
       <c r="H66" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I66" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J66" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K66" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>61</v>
       </c>
@@ -11400,28 +11449,28 @@
         <v>474</v>
       </c>
       <c r="E67" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F67" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G67" t="s">
         <v>475</v>
       </c>
       <c r="H67" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I67" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J67" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K67" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>62</v>
       </c>
@@ -11438,25 +11487,25 @@
         <v>475</v>
       </c>
       <c r="F68" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G68" t="s">
         <v>475</v>
       </c>
       <c r="H68" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I68" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J68" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K68" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>63</v>
       </c>
@@ -11473,7 +11522,7 @@
         <v>475</v>
       </c>
       <c r="F69" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G69" t="s">
         <v>475</v>
@@ -11485,13 +11534,13 @@
         <v>41</v>
       </c>
       <c r="J69">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K69" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>64</v>
       </c>
@@ -11508,25 +11557,25 @@
         <v>475</v>
       </c>
       <c r="F70" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G70" t="s">
         <v>475</v>
       </c>
       <c r="H70" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I70" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J70" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K70" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -11540,28 +11589,28 @@
         <v>475</v>
       </c>
       <c r="E71" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G71" t="s">
         <v>475</v>
       </c>
       <c r="H71" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I71" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J71" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K71" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -11578,25 +11627,25 @@
         <v>475</v>
       </c>
       <c r="F72" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G72" t="s">
         <v>475</v>
       </c>
       <c r="H72" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I72" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J72" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K72" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -11610,28 +11659,28 @@
         <v>475</v>
       </c>
       <c r="E73" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F73" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G73" t="s">
         <v>475</v>
       </c>
       <c r="H73" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I73" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J73" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K73" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -11648,25 +11697,25 @@
         <v>478</v>
       </c>
       <c r="F74" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G74" t="s">
         <v>475</v>
       </c>
       <c r="H74" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I74" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J74" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="K74" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>69</v>
       </c>
@@ -11680,28 +11729,28 @@
         <v>475</v>
       </c>
       <c r="E75" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F75" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G75" t="s">
         <v>475</v>
       </c>
       <c r="H75" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I75" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J75" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K75" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -11718,25 +11767,25 @@
         <v>475</v>
       </c>
       <c r="F76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G76" t="s">
         <v>475</v>
       </c>
       <c r="H76" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I76" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J76" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K76" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -11753,7 +11802,7 @@
         <v>478</v>
       </c>
       <c r="F77" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G77" t="s">
         <v>475</v>
@@ -11768,10 +11817,10 @@
         <v>43.18</v>
       </c>
       <c r="K77" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -11788,25 +11837,25 @@
         <v>475</v>
       </c>
       <c r="F78" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G78" t="s">
         <v>475</v>
       </c>
       <c r="H78" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I78" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J78" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K78" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>73</v>
       </c>
@@ -11823,25 +11872,25 @@
         <v>475</v>
       </c>
       <c r="F79" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G79" t="s">
         <v>475</v>
       </c>
       <c r="H79" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I79" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J79" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K79" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>74</v>
       </c>
@@ -11858,25 +11907,25 @@
         <v>475</v>
       </c>
       <c r="F80" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G80" t="s">
         <v>475</v>
       </c>
       <c r="H80" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I80" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J80" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="K80" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>75</v>
       </c>
@@ -11893,25 +11942,25 @@
         <v>475</v>
       </c>
       <c r="F81" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G81" t="s">
         <v>475</v>
       </c>
       <c r="H81" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I81" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J81" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K81" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>76</v>
       </c>
@@ -11928,7 +11977,7 @@
         <v>475</v>
       </c>
       <c r="F82" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G82" t="s">
         <v>475</v>
@@ -11940,13 +11989,13 @@
         <v>10.01</v>
       </c>
       <c r="J82">
-        <v>36.98</v>
+        <v>36.979999999999997</v>
       </c>
       <c r="K82" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>77</v>
       </c>
@@ -11963,25 +12012,25 @@
         <v>475</v>
       </c>
       <c r="F83" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G83" t="s">
         <v>475</v>
       </c>
       <c r="H83" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I83" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J83" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K83" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>78</v>
       </c>
@@ -12016,7 +12065,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -12033,25 +12082,25 @@
         <v>475</v>
       </c>
       <c r="F85" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G85" t="s">
         <v>475</v>
       </c>
       <c r="H85" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I85" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J85" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K85" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -12068,25 +12117,25 @@
         <v>475</v>
       </c>
       <c r="F86" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G86" t="s">
         <v>475</v>
       </c>
       <c r="H86" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I86" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J86" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K86" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -12103,25 +12152,25 @@
         <v>475</v>
       </c>
       <c r="F87" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G87" t="s">
         <v>475</v>
       </c>
       <c r="H87" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I87" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J87" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K87" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -12135,28 +12184,28 @@
         <v>476</v>
       </c>
       <c r="E88" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F88" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G88" t="s">
         <v>475</v>
       </c>
       <c r="H88" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I88" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J88" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K88" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>83</v>
       </c>
@@ -12173,25 +12222,25 @@
         <v>475</v>
       </c>
       <c r="F89" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G89" t="s">
         <v>475</v>
       </c>
       <c r="H89" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I89" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J89" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="K89" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>84</v>
       </c>
@@ -12208,25 +12257,25 @@
         <v>475</v>
       </c>
       <c r="F90" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G90" t="s">
         <v>475</v>
       </c>
       <c r="H90" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I90" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J90" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K90" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>85</v>
       </c>
@@ -12261,7 +12310,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -12278,7 +12327,7 @@
         <v>475</v>
       </c>
       <c r="F92" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G92" t="s">
         <v>475</v>
@@ -12287,16 +12336,16 @@
         <v>2.8</v>
       </c>
       <c r="I92">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="J92">
         <v>32</v>
       </c>
       <c r="K92" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -12313,25 +12362,25 @@
         <v>475</v>
       </c>
       <c r="F93" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G93" t="s">
         <v>475</v>
       </c>
       <c r="H93" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I93" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J93" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K93" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>88</v>
       </c>
@@ -12348,7 +12397,7 @@
         <v>475</v>
       </c>
       <c r="F94" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G94" t="s">
         <v>475</v>
@@ -12366,7 +12415,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>89</v>
       </c>
@@ -12383,25 +12432,25 @@
         <v>475</v>
       </c>
       <c r="F95" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G95" t="s">
         <v>475</v>
       </c>
       <c r="H95" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I95" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J95" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K95" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>90</v>
       </c>
@@ -12418,25 +12467,25 @@
         <v>475</v>
       </c>
       <c r="F96" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G96" t="s">
         <v>475</v>
       </c>
       <c r="H96" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I96" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J96" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K96" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>91</v>
       </c>
@@ -12453,25 +12502,25 @@
         <v>475</v>
       </c>
       <c r="F97" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G97" t="s">
         <v>475</v>
       </c>
       <c r="H97" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I97" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J97" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K97" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>92</v>
       </c>
@@ -12488,25 +12537,25 @@
         <v>475</v>
       </c>
       <c r="F98" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G98" t="s">
         <v>475</v>
       </c>
       <c r="H98" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I98" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J98" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="K98" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>93</v>
       </c>
@@ -12520,28 +12569,28 @@
         <v>474</v>
       </c>
       <c r="E99" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F99" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G99" t="s">
         <v>475</v>
       </c>
       <c r="H99" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I99" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J99" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="K99" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>94</v>
       </c>
@@ -12558,25 +12607,25 @@
         <v>478</v>
       </c>
       <c r="F100" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G100" t="s">
         <v>475</v>
       </c>
       <c r="H100" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I100" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J100" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K100" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>95</v>
       </c>
@@ -12593,25 +12642,25 @@
         <v>478</v>
       </c>
       <c r="F101" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G101" t="s">
         <v>475</v>
       </c>
       <c r="H101" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I101" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J101" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K101" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>96</v>
       </c>
@@ -12628,7 +12677,7 @@
         <v>478</v>
       </c>
       <c r="F102" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G102" t="s">
         <v>475</v>
@@ -12637,16 +12686,16 @@
         <v>1.2</v>
       </c>
       <c r="I102">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J102">
         <v>1.2</v>
       </c>
       <c r="K102" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>97</v>
       </c>
@@ -12681,7 +12730,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>98</v>
       </c>
@@ -12698,7 +12747,7 @@
         <v>475</v>
       </c>
       <c r="F104" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G104" t="s">
         <v>475</v>
@@ -12716,7 +12765,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>99</v>
       </c>
@@ -12730,28 +12779,28 @@
         <v>475</v>
       </c>
       <c r="E105" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F105" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G105" t="s">
         <v>475</v>
       </c>
       <c r="H105" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I105" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J105" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K105" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>100</v>
       </c>
@@ -12768,25 +12817,25 @@
         <v>475</v>
       </c>
       <c r="F106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G106" t="s">
         <v>475</v>
       </c>
       <c r="H106" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I106" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J106" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K106" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>101</v>
       </c>
@@ -12800,28 +12849,28 @@
         <v>474</v>
       </c>
       <c r="E107" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F107" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G107" t="s">
         <v>475</v>
       </c>
       <c r="H107" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I107" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J107" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="K107" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>102</v>
       </c>
@@ -12835,28 +12884,28 @@
         <v>475</v>
       </c>
       <c r="E108" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F108" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G108" t="s">
         <v>475</v>
       </c>
       <c r="H108" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I108" t="s">
+        <v>736</v>
+      </c>
+      <c r="J108" t="s">
         <v>737</v>
       </c>
-      <c r="J108" t="s">
-        <v>738</v>
-      </c>
       <c r="K108" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>103</v>
       </c>
@@ -12873,25 +12922,25 @@
         <v>475</v>
       </c>
       <c r="F109" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G109" t="s">
         <v>475</v>
       </c>
       <c r="H109" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I109" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J109" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K109" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>104</v>
       </c>
@@ -12905,10 +12954,10 @@
         <v>475</v>
       </c>
       <c r="E110" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F110" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G110" t="s">
         <v>475</v>
@@ -12926,7 +12975,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>105</v>
       </c>
@@ -12961,7 +13010,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>106</v>
       </c>
@@ -12978,25 +13027,25 @@
         <v>475</v>
       </c>
       <c r="F112" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G112" t="s">
         <v>475</v>
       </c>
       <c r="H112" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I112" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J112" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K112" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>107</v>
       </c>
@@ -13013,25 +13062,25 @@
         <v>475</v>
       </c>
       <c r="F113" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G113" t="s">
         <v>475</v>
       </c>
       <c r="H113" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I113" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J113" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K113" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>108</v>
       </c>
@@ -13048,25 +13097,25 @@
         <v>475</v>
       </c>
       <c r="F114" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G114" t="s">
         <v>475</v>
       </c>
       <c r="H114" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I114" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J114" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="K114" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>109</v>
       </c>
@@ -13083,7 +13132,7 @@
         <v>475</v>
       </c>
       <c r="F115" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G115" t="s">
         <v>475</v>
@@ -13098,10 +13147,10 @@
         <v>475</v>
       </c>
       <c r="K115" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>110</v>
       </c>
@@ -13118,25 +13167,25 @@
         <v>475</v>
       </c>
       <c r="F116" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G116" t="s">
         <v>475</v>
       </c>
       <c r="H116" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I116" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J116" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K116" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>111</v>
       </c>
@@ -13153,25 +13202,25 @@
         <v>475</v>
       </c>
       <c r="F117" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G117" t="s">
         <v>475</v>
       </c>
       <c r="H117" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I117" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J117" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K117" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>112</v>
       </c>
@@ -13188,25 +13237,25 @@
         <v>475</v>
       </c>
       <c r="F118" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G118" t="s">
         <v>475</v>
       </c>
       <c r="H118" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I118" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J118" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K118" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>113</v>
       </c>
@@ -13223,25 +13272,25 @@
         <v>475</v>
       </c>
       <c r="F119" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G119" t="s">
         <v>475</v>
       </c>
       <c r="H119" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I119" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J119" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K119" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>114</v>
       </c>
@@ -13258,25 +13307,25 @@
         <v>475</v>
       </c>
       <c r="F120" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G120" t="s">
         <v>475</v>
       </c>
       <c r="H120" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I120" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J120" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K120" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>115</v>
       </c>
@@ -13293,25 +13342,25 @@
         <v>475</v>
       </c>
       <c r="F121" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G121" t="s">
         <v>475</v>
       </c>
       <c r="H121" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I121" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J121" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="K121" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>116</v>
       </c>
@@ -13328,25 +13377,25 @@
         <v>475</v>
       </c>
       <c r="F122" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G122" t="s">
         <v>475</v>
       </c>
       <c r="H122" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I122" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J122" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K122" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>117</v>
       </c>
@@ -13360,28 +13409,28 @@
         <v>474</v>
       </c>
       <c r="E123" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F123" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G123" t="s">
         <v>475</v>
       </c>
       <c r="H123" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I123" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J123" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="K123" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>118</v>
       </c>
@@ -13416,7 +13465,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>119</v>
       </c>
@@ -13430,28 +13479,28 @@
         <v>474</v>
       </c>
       <c r="E125" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F125" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G125" t="s">
         <v>475</v>
       </c>
       <c r="H125" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I125" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J125" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K125" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>120</v>
       </c>
@@ -13468,7 +13517,7 @@
         <v>475</v>
       </c>
       <c r="F126" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G126" t="s">
         <v>475</v>
@@ -13486,7 +13535,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>121</v>
       </c>
@@ -13503,25 +13552,25 @@
         <v>475</v>
       </c>
       <c r="F127" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G127" t="s">
         <v>475</v>
       </c>
       <c r="H127" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I127" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J127" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K127" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>122</v>
       </c>
@@ -13553,10 +13602,10 @@
         <v>475</v>
       </c>
       <c r="K128" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>123</v>
       </c>
@@ -13573,25 +13622,25 @@
         <v>475</v>
       </c>
       <c r="F129" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G129" t="s">
         <v>475</v>
       </c>
       <c r="H129" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I129" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J129" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K129" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>124</v>
       </c>
@@ -13608,25 +13657,25 @@
         <v>475</v>
       </c>
       <c r="F130" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G130" t="s">
         <v>475</v>
       </c>
       <c r="H130" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I130" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J130" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="K130" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>125</v>
       </c>
@@ -13643,25 +13692,25 @@
         <v>475</v>
       </c>
       <c r="F131" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G131" t="s">
         <v>475</v>
       </c>
       <c r="H131" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I131" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J131" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K131" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>126</v>
       </c>
@@ -13678,25 +13727,25 @@
         <v>475</v>
       </c>
       <c r="F132" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G132" t="s">
         <v>475</v>
       </c>
       <c r="H132" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I132" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J132" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K132" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>127</v>
       </c>
@@ -13713,25 +13762,25 @@
         <v>475</v>
       </c>
       <c r="F133" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G133" t="s">
         <v>475</v>
       </c>
       <c r="H133">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I133">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="J133">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K133" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>128</v>
       </c>
@@ -13748,25 +13797,25 @@
         <v>475</v>
       </c>
       <c r="F134" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G134" t="s">
         <v>475</v>
       </c>
       <c r="H134" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I134" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J134" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K134" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>129</v>
       </c>
@@ -13801,7 +13850,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>130</v>
       </c>
@@ -13815,28 +13864,28 @@
         <v>474</v>
       </c>
       <c r="E136" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F136" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G136" t="s">
         <v>475</v>
       </c>
       <c r="H136" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I136" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J136" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K136" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>131</v>
       </c>
@@ -13853,25 +13902,25 @@
         <v>475</v>
       </c>
       <c r="F137" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G137" t="s">
         <v>475</v>
       </c>
       <c r="H137" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I137" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J137" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K137" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>132</v>
       </c>
@@ -13888,7 +13937,7 @@
         <v>475</v>
       </c>
       <c r="F138" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G138" t="s">
         <v>475</v>
@@ -13906,7 +13955,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>133</v>
       </c>
@@ -13923,25 +13972,25 @@
         <v>475</v>
       </c>
       <c r="F139" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G139" t="s">
         <v>475</v>
       </c>
       <c r="H139" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I139" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J139" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K139" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>134</v>
       </c>
@@ -13958,25 +14007,25 @@
         <v>475</v>
       </c>
       <c r="F140" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G140" t="s">
         <v>475</v>
       </c>
       <c r="H140" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I140" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J140" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K140" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>135</v>
       </c>
@@ -13993,25 +14042,25 @@
         <v>475</v>
       </c>
       <c r="F141" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G141" t="s">
         <v>475</v>
       </c>
       <c r="H141" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I141" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J141" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K141" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>136</v>
       </c>
@@ -14028,25 +14077,25 @@
         <v>475</v>
       </c>
       <c r="F142" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G142" t="s">
         <v>475</v>
       </c>
       <c r="H142" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I142" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J142" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="K142" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>137</v>
       </c>
@@ -14063,7 +14112,7 @@
         <v>475</v>
       </c>
       <c r="F143" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G143" t="s">
         <v>475</v>
@@ -14078,10 +14127,10 @@
         <v>60.1</v>
       </c>
       <c r="K143" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>138</v>
       </c>
@@ -14098,25 +14147,25 @@
         <v>478</v>
       </c>
       <c r="F144" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G144" t="s">
         <v>475</v>
       </c>
       <c r="H144" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I144" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J144" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K144" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>139</v>
       </c>
@@ -14133,25 +14182,25 @@
         <v>475</v>
       </c>
       <c r="F145" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G145" t="s">
         <v>475</v>
       </c>
       <c r="H145" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I145" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J145" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K145" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>140</v>
       </c>
@@ -14168,25 +14217,25 @@
         <v>475</v>
       </c>
       <c r="F146" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G146" t="s">
         <v>475</v>
       </c>
       <c r="H146" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I146" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J146" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K146" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>141</v>
       </c>
@@ -14203,25 +14252,25 @@
         <v>475</v>
       </c>
       <c r="F147" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G147" t="s">
         <v>475</v>
       </c>
       <c r="H147" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I147" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J147" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="K147" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>142</v>
       </c>
@@ -14238,25 +14287,25 @@
         <v>475</v>
       </c>
       <c r="F148" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G148" t="s">
         <v>475</v>
       </c>
       <c r="H148" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I148" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J148" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K148" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>143</v>
       </c>
@@ -14273,25 +14322,25 @@
         <v>475</v>
       </c>
       <c r="F149" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G149" t="s">
         <v>475</v>
       </c>
       <c r="H149" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I149" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J149" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="K149" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>144</v>
       </c>
@@ -14308,25 +14357,25 @@
         <v>475</v>
       </c>
       <c r="F150" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G150" t="s">
         <v>475</v>
       </c>
       <c r="H150" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I150" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J150" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K150" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>145</v>
       </c>
@@ -14343,7 +14392,7 @@
         <v>475</v>
       </c>
       <c r="F151" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G151" t="s">
         <v>475</v>
@@ -14361,7 +14410,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>146</v>
       </c>
@@ -14375,10 +14424,10 @@
         <v>475</v>
       </c>
       <c r="E152" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F152" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G152" t="s">
         <v>475</v>
@@ -14393,10 +14442,10 @@
         <v>2</v>
       </c>
       <c r="K152" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>147</v>
       </c>
@@ -14413,25 +14462,25 @@
         <v>475</v>
       </c>
       <c r="F153" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G153" t="s">
         <v>475</v>
       </c>
       <c r="H153" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I153" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J153" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K153" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>148</v>
       </c>
@@ -14448,25 +14497,25 @@
         <v>475</v>
       </c>
       <c r="F154" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G154" t="s">
         <v>475</v>
       </c>
       <c r="H154" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I154" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J154" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K154" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>149</v>
       </c>
@@ -14483,25 +14532,25 @@
         <v>478</v>
       </c>
       <c r="F155" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G155" t="s">
         <v>475</v>
       </c>
       <c r="H155" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I155" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J155" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K155" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>150</v>
       </c>
@@ -14518,25 +14567,25 @@
         <v>475</v>
       </c>
       <c r="F156" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G156" t="s">
         <v>475</v>
       </c>
       <c r="H156" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I156" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J156" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K156" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>151</v>
       </c>
@@ -14553,25 +14602,25 @@
         <v>478</v>
       </c>
       <c r="F157" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G157" t="s">
         <v>475</v>
       </c>
       <c r="H157" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I157" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J157" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K157" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>152</v>
       </c>
@@ -14588,7 +14637,7 @@
         <v>475</v>
       </c>
       <c r="F158" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G158" t="s">
         <v>475</v>
@@ -14603,10 +14652,10 @@
         <v>43.92</v>
       </c>
       <c r="K158" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>152</v>
       </c>
@@ -14623,7 +14672,7 @@
         <v>475</v>
       </c>
       <c r="F159" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G159" t="s">
         <v>475</v>
@@ -14638,10 +14687,10 @@
         <v>43.92</v>
       </c>
       <c r="K159" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>151</v>
       </c>
@@ -14658,25 +14707,25 @@
         <v>478</v>
       </c>
       <c r="F160" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G160" t="s">
         <v>475</v>
       </c>
       <c r="H160" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I160" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J160" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K160" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>153</v>
       </c>
@@ -14690,28 +14739,28 @@
         <v>475</v>
       </c>
       <c r="E161" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F161" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G161" t="s">
         <v>475</v>
       </c>
       <c r="H161" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I161" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J161" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K161" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>154</v>
       </c>
@@ -14728,7 +14777,7 @@
         <v>475</v>
       </c>
       <c r="F162" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G162" t="s">
         <v>475</v>
@@ -14746,7 +14795,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>155</v>
       </c>
@@ -14763,25 +14812,25 @@
         <v>475</v>
       </c>
       <c r="F163" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G163" t="s">
         <v>475</v>
       </c>
       <c r="H163" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I163" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J163" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K163" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>156</v>
       </c>
@@ -14798,25 +14847,25 @@
         <v>478</v>
       </c>
       <c r="F164" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G164" t="s">
         <v>475</v>
       </c>
       <c r="H164" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I164" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J164" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="K164" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>157</v>
       </c>
@@ -14833,19 +14882,19 @@
         <v>475</v>
       </c>
       <c r="F165" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G165" t="s">
         <v>475</v>
       </c>
       <c r="H165" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I165" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J165" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K165" t="s">
         <v>475</v>
